--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3598.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3598.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.764491967808312</v>
+        <v>1.69569456577301</v>
       </c>
       <c r="B1">
-        <v>3.908412261043039</v>
+        <v>4.663414001464844</v>
       </c>
       <c r="C1">
-        <v>4.335074785976153</v>
+        <v>2.914740562438965</v>
       </c>
       <c r="D1">
-        <v>1.127764172576627</v>
+        <v>1.490396976470947</v>
       </c>
       <c r="E1">
-        <v>0.754097107783599</v>
+        <v>1.09908664226532</v>
       </c>
     </row>
   </sheetData>
